--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2175400.44934418</v>
+        <v>2174753.476802996</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7428141.695602972</v>
+        <v>7428141.695602974</v>
       </c>
     </row>
     <row r="11">
@@ -1376,64 +1376,64 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>57.67900616287451</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.565094327417443</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="G11" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.565094327417455</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>68.39702598806991</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>57.6790061628745</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087881</v>
+        <v>6.191472723087853</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964397</v>
+        <v>13.45870707964394</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998889</v>
+        <v>31.53932278998886</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.425103864436287</v>
+        <v>0.4251038644362626</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938193</v>
+        <v>9.028675106938167</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882466</v>
+        <v>67.59134727882463</v>
       </c>
       <c r="V13" t="n">
-        <v>34.486327106928</v>
+        <v>34.48632710692797</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740438</v>
+        <v>67.64255292740435</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298101</v>
+        <v>7.690335972298072</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.298649907757067</v>
+        <v>0.2986499077570386</v>
       </c>
     </row>
     <row r="14">
@@ -1610,70 +1610,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24.6869033053862</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.565094327417455</v>
+      </c>
+      <c r="U14" t="n">
+        <v>32.99210285748828</v>
+      </c>
+      <c r="V14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>60.24410049029196</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087881</v>
+        <v>6.191472723087853</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964397</v>
+        <v>13.45870707964394</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998889</v>
+        <v>31.53932278998886</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.425103864436287</v>
+        <v>0.4251038644362626</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938193</v>
+        <v>9.028675106938167</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882466</v>
+        <v>67.59134727882463</v>
       </c>
       <c r="V16" t="n">
-        <v>34.486327106928</v>
+        <v>34.48632710692797</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740438</v>
+        <v>67.64255292740435</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298101</v>
+        <v>7.690335972298072</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.298649907757067</v>
+        <v>0.2986499077570386</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E17" t="n">
-        <v>32.58791875473287</v>
+        <v>32.58791875473288</v>
       </c>
       <c r="F17" t="n">
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521427</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>16.45497867838804</v>
       </c>
       <c r="D20" t="n">
-        <v>6.074615754043784</v>
+        <v>6.074615754043805</v>
       </c>
       <c r="E20" t="n">
         <v>32.58791875473287</v>
       </c>
       <c r="F20" t="n">
-        <v>56.76374647998625</v>
+        <v>56.76374647998626</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521427</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521427</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520738</v>
+        <v>6.46358077952074</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -2792,7 +2792,7 @@
         <v>162.7012917039664</v>
       </c>
       <c r="C29" t="n">
-        <v>145.969977391514</v>
+        <v>145.9699773915145</v>
       </c>
       <c r="D29" t="n">
         <v>135.5896144671698</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007082</v>
       </c>
       <c r="V29" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W29" t="n">
-        <v>129.514998713126</v>
+        <v>129.5149987131259</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8464808437408</v>
+        <v>149.8464808437407</v>
       </c>
       <c r="Y29" t="n">
         <v>165.6719534638072</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670398</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222649</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97422846257143</v>
+        <v>28.9742284625714</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520711</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140717</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951052</v>
       </c>
       <c r="W31" t="n">
-        <v>65.07745859998693</v>
+        <v>65.0774585999869</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880617</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520768</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C35" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D35" t="n">
-        <v>113.470016262628</v>
+        <v>113.4700162626279</v>
       </c>
       <c r="E35" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F35" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406719</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325528988</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054888</v>
       </c>
       <c r="W35" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X35" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y35" t="n">
-        <v>143.5523552592654</v>
+        <v>143.5523552592653</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.854630258029658</v>
+        <v>6.854630258029573</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.90665474686543</v>
+        <v>42.90665474686534</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968688</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544507</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C38" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D38" t="n">
-        <v>113.470016262628</v>
+        <v>113.4700162626279</v>
       </c>
       <c r="E38" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F38" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406719</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325528991</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054888</v>
       </c>
       <c r="W38" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X38" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y38" t="n">
-        <v>143.5523552592654</v>
+        <v>143.5523552592653</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.854630258029658</v>
+        <v>6.854630258029573</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.90665474686543</v>
+        <v>42.90665474686534</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968688</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544507</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C41" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D41" t="n">
-        <v>113.470016262628</v>
+        <v>113.4700162626279</v>
       </c>
       <c r="E41" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F41" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406719</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325528988</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054888</v>
       </c>
       <c r="W41" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X41" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y41" t="n">
-        <v>143.5523552592654</v>
+        <v>143.5523552592653</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.854630258029658</v>
+        <v>6.854630258029573</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.90665474686543</v>
+        <v>42.90665474686534</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968688</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544507</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C44" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D44" t="n">
-        <v>113.470016262628</v>
+        <v>113.4700162626279</v>
       </c>
       <c r="E44" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F44" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G44" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406719</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325528988</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054888</v>
       </c>
       <c r="W44" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X44" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y44" t="n">
-        <v>143.5523552592654</v>
+        <v>143.5523552592653</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.854630258029658</v>
+        <v>6.854630258029573</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.90665474686543</v>
+        <v>42.90665474686534</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968688</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544507</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.9091945426965</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="C11" t="n">
-        <v>201.9091945426965</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="D11" t="n">
-        <v>201.9091945426965</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="E11" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750006</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G11" t="n">
         <v>5.471762079045593</v>
@@ -5036,28 +5036,28 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439186</v>
+        <v>34.57507980108247</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439186</v>
+        <v>102.2881355292717</v>
       </c>
       <c r="K11" t="n">
-        <v>64.20773806656688</v>
+        <v>102.2881355292717</v>
       </c>
       <c r="L11" t="n">
-        <v>64.20773806656688</v>
+        <v>102.2881355292717</v>
       </c>
       <c r="M11" t="n">
-        <v>64.20773806656688</v>
+        <v>102.2881355292717</v>
       </c>
       <c r="N11" t="n">
-        <v>131.9207937947561</v>
+        <v>170.0011912574609</v>
       </c>
       <c r="O11" t="n">
-        <v>131.9207937947561</v>
+        <v>237.7142469856501</v>
       </c>
       <c r="P11" t="n">
-        <v>188.4057232580028</v>
+        <v>237.7142469856501</v>
       </c>
       <c r="Q11" t="n">
         <v>237.7142469856501</v>
@@ -5075,16 +5075,16 @@
         <v>270.9970995811509</v>
       </c>
       <c r="V11" t="n">
-        <v>270.9970995811509</v>
+        <v>201.9091945426964</v>
       </c>
       <c r="W11" t="n">
-        <v>201.9091945426965</v>
+        <v>132.821289504242</v>
       </c>
       <c r="X11" t="n">
-        <v>201.9091945426965</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="Y11" t="n">
-        <v>201.9091945426965</v>
+        <v>74.55966711750006</v>
       </c>
     </row>
     <row r="12">
@@ -5127,34 +5127,34 @@
         <v>5.471762079045593</v>
       </c>
       <c r="M12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291717</v>
+        <v>50.92431750291711</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711517</v>
+        <v>37.32966388711515</v>
       </c>
       <c r="W12" t="n">
         <v>5.471762079045593</v>
@@ -5182,64 +5182,64 @@
         <v>5.471762079045593</v>
       </c>
       <c r="E13" t="n">
-        <v>5.471762079045593</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="F13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="G13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="H13" t="n">
-        <v>63.47835070572653</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="I13" t="n">
-        <v>131.1914064339157</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="J13" t="n">
-        <v>131.1914064339157</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="K13" t="n">
-        <v>131.1914064339157</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="L13" t="n">
-        <v>131.1914064339157</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="M13" t="n">
-        <v>131.1914064339157</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="N13" t="n">
-        <v>131.1914064339157</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="O13" t="n">
-        <v>131.1914064339157</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="P13" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R13" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751571</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T13" t="n">
-        <v>184.976017829765</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U13" t="n">
-        <v>116.701929669336</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395422</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617203</v>
+        <v>13.54144478617197</v>
       </c>
       <c r="X13" t="n">
-        <v>5.77342865253758</v>
+        <v>5.773428652537551</v>
       </c>
       <c r="Y13" t="n">
         <v>5.471762079045593</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.6475721559545</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6475721559545</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="D14" t="n">
-        <v>74.55966711750006</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="E14" t="n">
         <v>74.55966711750006</v>
@@ -5267,34 +5267,34 @@
         <v>74.55966711750006</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="H14" t="n">
         <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>5.471762079045593</v>
+        <v>35.56706215439186</v>
       </c>
       <c r="J14" t="n">
-        <v>23.29458554854546</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="K14" t="n">
-        <v>23.29458554854546</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="L14" t="n">
-        <v>23.29458554854546</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="M14" t="n">
-        <v>91.00764127673467</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="N14" t="n">
-        <v>91.00764127673467</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="O14" t="n">
-        <v>158.7206970049239</v>
+        <v>170.9931736107703</v>
       </c>
       <c r="P14" t="n">
-        <v>215.2056264681705</v>
+        <v>170.9931736107703</v>
       </c>
       <c r="Q14" t="n">
         <v>215.2056264681705</v>
@@ -5306,22 +5306,22 @@
         <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811509</v>
       </c>
       <c r="U14" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594456</v>
       </c>
       <c r="V14" t="n">
-        <v>212.735477194409</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="W14" t="n">
-        <v>212.735477194409</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="X14" t="n">
-        <v>212.735477194409</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.6475721559545</v>
+        <v>99.49593308253662</v>
       </c>
     </row>
     <row r="15">
@@ -5364,34 +5364,34 @@
         <v>5.471762079045593</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291717</v>
+        <v>50.92431750291711</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711517</v>
+        <v>37.32966388711515</v>
       </c>
       <c r="W15" t="n">
         <v>5.471762079045593</v>
@@ -5431,7 +5431,7 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I16" t="n">
-        <v>73.18481780723481</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J16" t="n">
         <v>73.18481780723481</v>
@@ -5440,43 +5440,43 @@
         <v>73.18481780723481</v>
       </c>
       <c r="L16" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="M16" t="n">
-        <v>140.897873535424</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="N16" t="n">
-        <v>140.897873535424</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="O16" t="n">
-        <v>164.5391048326217</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="P16" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R16" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751571</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T16" t="n">
-        <v>184.976017829765</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U16" t="n">
-        <v>116.701929669336</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395422</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617203</v>
+        <v>13.54144478617197</v>
       </c>
       <c r="X16" t="n">
-        <v>5.77342865253758</v>
+        <v>5.773428652537551</v>
       </c>
       <c r="Y16" t="n">
         <v>5.471762079045593</v>
@@ -5492,7 +5492,7 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436691</v>
+        <v>166.386378143669</v>
       </c>
       <c r="D17" t="n">
         <v>160.2504026345339</v>
@@ -5501,52 +5501,52 @@
         <v>127.3333129832886</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673682</v>
+        <v>69.99619532673677</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H17" t="n">
-        <v>5.471762079045594</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="I17" t="n">
-        <v>48.67201024445711</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="J17" t="n">
-        <v>48.67201024445711</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="K17" t="n">
-        <v>48.67201024445711</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="L17" t="n">
-        <v>48.67201024445711</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="M17" t="n">
-        <v>48.67201024445711</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="N17" t="n">
-        <v>48.67201024445711</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="O17" t="n">
-        <v>116.3850659726463</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="P17" t="n">
-        <v>116.3850659726463</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.3850659726463</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="R17" t="n">
-        <v>116.3850659726463</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="S17" t="n">
-        <v>184.0981217008356</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="T17" t="n">
-        <v>251.8111774290248</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U17" t="n">
-        <v>251.8111774290248</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V17" t="n">
         <v>273.5881039522797</v>
@@ -5555,10 +5555,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152951</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="20">
@@ -5747,43 +5747,43 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I20" t="n">
-        <v>5.471762079045593</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="J20" t="n">
-        <v>5.471762079045593</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="K20" t="n">
-        <v>5.471762079045593</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="L20" t="n">
-        <v>5.471762079045593</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="M20" t="n">
-        <v>70.44893676771203</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="N20" t="n">
-        <v>138.1619924959012</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="O20" t="n">
-        <v>138.1619924959012</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="P20" t="n">
-        <v>138.1619924959012</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1619924959012</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="R20" t="n">
-        <v>138.1619924959012</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="S20" t="n">
-        <v>138.1619924959012</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="U20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V20" t="n">
         <v>273.5881039522797</v>
@@ -5981,46 +5981,46 @@
         <v>5.471762079045594</v>
       </c>
       <c r="H23" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I23" t="n">
-        <v>22.25055491761735</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="J23" t="n">
-        <v>22.25055491761735</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="K23" t="n">
-        <v>89.96361064580658</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="L23" t="n">
-        <v>89.96361064580658</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="M23" t="n">
-        <v>89.96361064580658</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="N23" t="n">
-        <v>89.96361064580658</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="O23" t="n">
-        <v>157.6766663739958</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="P23" t="n">
-        <v>157.6766663739958</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.6766663739958</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="R23" t="n">
-        <v>225.3897221021851</v>
+        <v>208.6109292636133</v>
       </c>
       <c r="S23" t="n">
-        <v>225.3897221021851</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="T23" t="n">
-        <v>225.3897221021851</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V23" t="n">
         <v>273.5881039522797</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923729</v>
       </c>
       <c r="C26" t="n">
         <v>832.575947384783</v>
@@ -6221,31 +6221,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>67.29938996034309</v>
+        <v>49.23646460318959</v>
       </c>
       <c r="J26" t="n">
-        <v>148.7795367731729</v>
+        <v>49.23646460318959</v>
       </c>
       <c r="K26" t="n">
-        <v>419.8060112541471</v>
+        <v>384.7703275405744</v>
       </c>
       <c r="L26" t="n">
-        <v>480.6313259896535</v>
+        <v>813.7453279886372</v>
       </c>
       <c r="M26" t="n">
-        <v>554.5311919214307</v>
+        <v>813.7453279886372</v>
       </c>
       <c r="N26" t="n">
-        <v>983.5061923694934</v>
+        <v>1121.286367329206</v>
       </c>
       <c r="O26" t="n">
-        <v>1227.78012361886</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="P26" t="n">
-        <v>1618.128446399608</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="Q26" t="n">
-        <v>1669.770960790282</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6266,7 +6266,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y26" t="n">
         <v>1144.365108087288</v>
@@ -6315,19 +6315,19 @@
         <v>34.66464650085356</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="S27" t="n">
         <v>78.59820166294284</v>
@@ -6361,52 +6361,52 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C28" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D28" t="n">
-        <v>136.7319984947422</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N28" t="n">
-        <v>210.0320876678294</v>
+        <v>98.12510290766006</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0320876678294</v>
+        <v>98.12510290766006</v>
       </c>
       <c r="P28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="S28" t="n">
         <v>210.0320876678294</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923732</v>
       </c>
       <c r="C29" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847828</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522881</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776834</v>
+        <v>531.8764201776833</v>
       </c>
       <c r="F29" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977719</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,34 +6458,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J29" t="n">
-        <v>129.0339860861246</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="K29" t="n">
-        <v>525.2348174338131</v>
+        <v>353.8621649148091</v>
       </c>
       <c r="L29" t="n">
-        <v>685.184529445399</v>
+        <v>414.6874796503155</v>
       </c>
       <c r="M29" t="n">
-        <v>1114.159529893462</v>
+        <v>843.6624800983783</v>
       </c>
       <c r="N29" t="n">
-        <v>1114.159529893462</v>
+        <v>843.6624800983783</v>
       </c>
       <c r="O29" t="n">
-        <v>1185.166561619259</v>
+        <v>1272.637480546441</v>
       </c>
       <c r="P29" t="n">
-        <v>1575.514884400008</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1627.157398790682</v>
+        <v>1602.109334889059</v>
       </c>
       <c r="R29" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6497,16 +6497,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V29" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W29" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="30">
@@ -6534,49 +6534,49 @@
         <v>34.66464650085356</v>
       </c>
       <c r="H30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="U30" t="n">
-        <v>74.93519318246766</v>
+        <v>74.9351931824676</v>
       </c>
       <c r="V30" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779437</v>
       </c>
       <c r="W30" t="n">
         <v>34.66464650085356</v>
@@ -6595,70 +6595,70 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K31" t="n">
-        <v>100.2436934660114</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L31" t="n">
-        <v>100.2436934660114</v>
+        <v>100.2436934660113</v>
       </c>
       <c r="M31" t="n">
-        <v>100.2436934660114</v>
+        <v>100.2436934660113</v>
       </c>
       <c r="N31" t="n">
-        <v>100.2436934660114</v>
+        <v>100.2436934660113</v>
       </c>
       <c r="O31" t="n">
-        <v>100.2436934660114</v>
+        <v>100.2436934660113</v>
       </c>
       <c r="P31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678293</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678293</v>
       </c>
       <c r="R31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678293</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678293</v>
       </c>
       <c r="T31" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935659</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042657</v>
       </c>
       <c r="V31" t="n">
         <v>105.5764649300127</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335923</v>
       </c>
       <c r="X31" t="n">
         <v>34.66464650085356</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923733</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847834</v>
       </c>
       <c r="D32" t="n">
         <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F32" t="n">
         <v>343.7160714977722</v>
@@ -6695,34 +6695,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="J32" t="n">
-        <v>290.2466682948505</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="K32" t="n">
-        <v>467.6425325379846</v>
+        <v>129.7601045247602</v>
       </c>
       <c r="L32" t="n">
-        <v>528.4678472734911</v>
+        <v>558.7351049728229</v>
       </c>
       <c r="M32" t="n">
-        <v>867.2506302490075</v>
+        <v>558.7351049728229</v>
       </c>
       <c r="N32" t="n">
-        <v>943.3042433195521</v>
+        <v>987.7101054208857</v>
       </c>
       <c r="O32" t="n">
-        <v>1372.279243767615</v>
+        <v>1058.717137146683</v>
       </c>
       <c r="P32" t="n">
-        <v>1431.303616615005</v>
+        <v>1424.371543196677</v>
       </c>
       <c r="Q32" t="n">
-        <v>1669.770960790283</v>
+        <v>1694.819024691905</v>
       </c>
       <c r="R32" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6756,64 +6756,64 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V33" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6841,61 +6841,61 @@
         <v>34.66464650085356</v>
       </c>
       <c r="E34" t="n">
-        <v>107.9647356739407</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F34" t="n">
-        <v>107.9647356739407</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7568293506336</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H34" t="n">
-        <v>160.7568293506336</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I34" t="n">
-        <v>160.7568293506336</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J34" t="n">
-        <v>160.7568293506336</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K34" t="n">
-        <v>160.7568293506336</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L34" t="n">
-        <v>160.7568293506336</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M34" t="n">
-        <v>160.7568293506336</v>
+        <v>150.3806241592532</v>
       </c>
       <c r="N34" t="n">
-        <v>160.7568293506336</v>
+        <v>150.3806241592532</v>
       </c>
       <c r="O34" t="n">
-        <v>160.7568293506336</v>
+        <v>150.3806241592532</v>
       </c>
       <c r="P34" t="n">
-        <v>160.7568293506336</v>
+        <v>150.3806241592532</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.7568293506336</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="T34" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767097</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585562</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154977</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303295</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.5582524398538</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J35" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K35" t="n">
-        <v>331.199731489916</v>
+        <v>548.3665238589936</v>
       </c>
       <c r="L35" t="n">
-        <v>692.4616762097896</v>
+        <v>631.0902408169964</v>
       </c>
       <c r="M35" t="n">
-        <v>788.2599443640632</v>
+        <v>658.8586631962908</v>
       </c>
       <c r="N35" t="n">
-        <v>886.2119596571043</v>
+        <v>756.8106784893318</v>
       </c>
       <c r="O35" t="n">
-        <v>979.1173936053985</v>
+        <v>849.7161124376261</v>
       </c>
       <c r="P35" t="n">
-        <v>1060.040168675285</v>
+        <v>1210.9780571575</v>
       </c>
       <c r="Q35" t="n">
-        <v>1352.38605239301</v>
+        <v>1284.724426491787</v>
       </c>
       <c r="R35" t="n">
-        <v>1412.697754966279</v>
+        <v>1412.697754966278</v>
       </c>
       <c r="S35" t="n">
         <v>1459.644221090398</v>
@@ -6968,19 +6968,19 @@
         <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336783</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.49214658219</v>
+        <v>982.4921465821891</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G37" t="n">
-        <v>122.3807428994845</v>
+        <v>31.39397561677738</v>
       </c>
       <c r="H37" t="n">
-        <v>122.3807428994845</v>
+        <v>31.39397561677738</v>
       </c>
       <c r="I37" t="n">
-        <v>122.3807428994845</v>
+        <v>125.825358883706</v>
       </c>
       <c r="J37" t="n">
-        <v>122.3807428994845</v>
+        <v>125.825358883706</v>
       </c>
       <c r="K37" t="n">
-        <v>122.3807428994845</v>
+        <v>125.825358883706</v>
       </c>
       <c r="L37" t="n">
-        <v>122.3807428994845</v>
+        <v>125.825358883706</v>
       </c>
       <c r="M37" t="n">
-        <v>122.3807428994845</v>
+        <v>125.825358883706</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384205</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902519</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767104</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585565</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154979</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E38" t="n">
         <v>459.3755726303291</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398537</v>
+        <v>293.5582524398539</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J38" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K38" t="n">
-        <v>548.3665238589937</v>
+        <v>271.4636959260337</v>
       </c>
       <c r="L38" t="n">
-        <v>625.8528589438988</v>
+        <v>354.1874128840365</v>
       </c>
       <c r="M38" t="n">
-        <v>721.6511270981724</v>
+        <v>604.2630275699789</v>
       </c>
       <c r="N38" t="n">
-        <v>1082.913071818046</v>
+        <v>604.2630275699789</v>
       </c>
       <c r="O38" t="n">
-        <v>1175.81850576634</v>
+        <v>697.1684615182731</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.741280836227</v>
+        <v>1058.430406238147</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170514</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T38" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V38" t="n">
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C40" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D40" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E40" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F40" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="J40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="K40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="L40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="M40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="O40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="T40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384205</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902519</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="41">
@@ -7388,61 +7388,61 @@
         <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398544</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G41" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J41" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K41" t="n">
-        <v>271.4636959260336</v>
+        <v>271.4636959260337</v>
       </c>
       <c r="L41" t="n">
-        <v>354.1874128840364</v>
+        <v>422.7097861114142</v>
       </c>
       <c r="M41" t="n">
-        <v>715.4493576039101</v>
+        <v>518.5080542656879</v>
       </c>
       <c r="N41" t="n">
-        <v>813.4013728969512</v>
+        <v>534.2173913964789</v>
       </c>
       <c r="O41" t="n">
-        <v>1174.663317616825</v>
+        <v>895.4793361163523</v>
       </c>
       <c r="P41" t="n">
-        <v>1255.586092686711</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q41" t="n">
-        <v>1330.487650170514</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T41" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U41" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V41" t="n">
         <v>1364.991781336784</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821899</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C43" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D43" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E43" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F43" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O43" t="n">
-        <v>125.8253588837063</v>
+        <v>32.38507935689061</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8253588837063</v>
+        <v>32.38507935689061</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837063</v>
+        <v>32.38507935689061</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837063</v>
+        <v>110.3259016329351</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837063</v>
+        <v>110.3259016329351</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384205</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902519</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.13486298451708</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.490435976711</v>
+        <v>840.4904359767103</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585571</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154985</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G44" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I44" t="n">
-        <v>29.19288442180797</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J44" t="n">
-        <v>306.6733084383013</v>
+        <v>288.0337803829799</v>
       </c>
       <c r="K44" t="n">
-        <v>306.6733084383013</v>
+        <v>649.2957251028533</v>
       </c>
       <c r="L44" t="n">
-        <v>389.3970253963041</v>
+        <v>732.0194420608561</v>
       </c>
       <c r="M44" t="n">
-        <v>485.1952935505777</v>
+        <v>827.8177102151298</v>
       </c>
       <c r="N44" t="n">
-        <v>819.4252701301111</v>
+        <v>827.8177102151298</v>
       </c>
       <c r="O44" t="n">
-        <v>912.3307040784053</v>
+        <v>1189.079654935003</v>
       </c>
       <c r="P44" t="n">
-        <v>1273.592648798279</v>
+        <v>1189.079654935003</v>
       </c>
       <c r="Q44" t="n">
-        <v>1347.339018132566</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T44" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U44" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336785</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802862</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X44" t="n">
         <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821905</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="P46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="T46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.825358883706</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384205</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902519</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>69.59228844383081</v>
+        <v>70.58724579725376</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>168.643434336125</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.25352946159447</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>77.8361404796769</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q14" t="n">
-        <v>168.6434343361249</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>210.6724847641989</v>
+        <v>275.8314630029976</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>371.8683694066227</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>356.4862498762809</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>396.0321885132552</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2019806061464</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>102.5727324697714</v>
@@ -10039,16 +10039,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>307.9448274433199</v>
       </c>
       <c r="L29" t="n">
-        <v>100.1256538142217</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>358.661752036652</v>
+        <v>358.6617520366522</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>220.8075902863009</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10276,19 +10276,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>371.8683694066227</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>406.5554278918626</v>
       </c>
       <c r="O32" t="n">
-        <v>361.5838067901666</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>309.7273062652562</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.5044212762496</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10504,13 +10504,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10519,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>264.8134709108085</v>
+        <v>279.699826194909</v>
       </c>
       <c r="L35" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>174.4177005576481</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>283.1708784343303</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725114</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>25.87095300760262</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>279.6998261949092</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>237.0693112497606</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>155.8357035673423</v>
       </c>
       <c r="N38" t="n">
-        <v>265.9696256836693</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10987,10 +10987,10 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11063,22 +11063,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>69.21451841149272</v>
       </c>
       <c r="M41" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>271.067182597555</v>
+        <v>271.0671825975547</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.16685671668246</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>16.26313074783606</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,16 +11215,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>101.9486881251109</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>279.6998261949089</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>238.6646073600933</v>
+        <v>10.26208727674519</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>271.0671825975547</v>
       </c>
       <c r="P44" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11452,25 +11452,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23258,19 +23258,19 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>148.5350717189315</v>
+        <v>148.5350717189314</v>
       </c>
       <c r="D11" t="n">
         <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>106.9890056324018</v>
+        <v>96.27098580720636</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4468135324598</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H11" t="n">
         <v>115.1318174460265</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748831</v>
+        <v>32.99210285748827</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443825</v>
       </c>
       <c r="W11" t="n">
-        <v>63.68306705247352</v>
+        <v>63.68306705247349</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>94.73256900828372</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.2370477912247</v>
+        <v>168.2370477912246</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189315</v>
+        <v>148.5350717189314</v>
       </c>
       <c r="D14" t="n">
-        <v>69.75768280651732</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E14" t="n">
-        <v>164.6680117952763</v>
+        <v>139.9811084898901</v>
       </c>
       <c r="F14" t="n">
         <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>46.73479145795656</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417469</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.9921028574883</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>49.83909707221625</v>
+        <v>41.68617157443825</v>
       </c>
       <c r="W14" t="n">
         <v>132.0800930405434</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308829</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.84002180315474</v>
+        <v>168.2370477912246</v>
       </c>
     </row>
     <row r="15">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711729.7223604035</v>
+        <v>711729.7223604036</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672664.6092081175</v>
+        <v>672664.6092081176</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672664.6092081175</v>
+        <v>672664.6092081176</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672664.6092081175</v>
+        <v>672664.6092081176</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791852.4683118471</v>
+        <v>791852.4683118473</v>
       </c>
       <c r="C2" t="n">
-        <v>791852.4683118472</v>
+        <v>791852.4683118473</v>
       </c>
       <c r="D2" t="n">
-        <v>791852.4683118474</v>
+        <v>791852.4683118473</v>
       </c>
       <c r="E2" t="n">
-        <v>681076.2678233399</v>
+        <v>681076.267823341</v>
       </c>
       <c r="F2" t="n">
-        <v>681076.2678233401</v>
+        <v>681076.2678233408</v>
       </c>
       <c r="G2" t="n">
-        <v>793571.4233995629</v>
+        <v>793571.4233995628</v>
       </c>
       <c r="H2" t="n">
         <v>793571.4233995628</v>
@@ -26335,25 +26335,25 @@
         <v>793571.4233995629</v>
       </c>
       <c r="J2" t="n">
-        <v>793571.4233995622</v>
+        <v>793571.4233995621</v>
       </c>
       <c r="K2" t="n">
+        <v>793571.4233995621</v>
+      </c>
+      <c r="L2" t="n">
         <v>793571.4233995619</v>
       </c>
-      <c r="L2" t="n">
-        <v>793571.4233995625</v>
-      </c>
       <c r="M2" t="n">
-        <v>793571.4233995622</v>
+        <v>793571.4233995619</v>
       </c>
       <c r="N2" t="n">
+        <v>793571.4233995618</v>
+      </c>
+      <c r="O2" t="n">
+        <v>793571.4233995617</v>
+      </c>
+      <c r="P2" t="n">
         <v>793571.423399562</v>
-      </c>
-      <c r="O2" t="n">
-        <v>793571.4233995622</v>
-      </c>
-      <c r="P2" t="n">
-        <v>793571.4233995621</v>
       </c>
     </row>
     <row r="3">
@@ -26396,13 +26396,13 @@
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363342</v>
+        <v>17695.67856363351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750814</v>
+        <v>71148.02019750816</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.676015374</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.676015374</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983837</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983837</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983836</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
         <v>434774.7393444278</v>
@@ -26445,16 +26445,16 @@
         <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444277</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="M4" t="n">
         <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613774</v>
       </c>
       <c r="P4" t="n">
         <v>431062.8369613773</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26503,13 +26503,13 @@
         <v>45042.30008022612</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294672.7476761555</v>
+        <v>294668.3400990077</v>
       </c>
       <c r="C6" t="n">
-        <v>294672.7476761556</v>
+        <v>294668.3400990077</v>
       </c>
       <c r="D6" t="n">
-        <v>294672.7476761558</v>
+        <v>294668.3400990077</v>
       </c>
       <c r="E6" t="n">
-        <v>10473.17782070931</v>
+        <v>10184.72870384819</v>
       </c>
       <c r="F6" t="n">
-        <v>294678.5621247087</v>
+        <v>294390.1130078472</v>
       </c>
       <c r="G6" t="n">
-        <v>225671.0486436616</v>
+        <v>225671.0486436614</v>
       </c>
       <c r="H6" t="n">
         <v>331335.1230760962</v>
       </c>
       <c r="I6" t="n">
-        <v>331335.1230760964</v>
+        <v>331335.1230760963</v>
       </c>
       <c r="J6" t="n">
-        <v>144830.6089530392</v>
+        <v>144830.6089530389</v>
       </c>
       <c r="K6" t="n">
-        <v>311455.417296291</v>
+        <v>311455.4172962913</v>
       </c>
       <c r="L6" t="n">
-        <v>205791.3428638569</v>
+        <v>205791.3428638563</v>
       </c>
       <c r="M6" t="n">
-        <v>299770.6077943253</v>
+        <v>299770.607794325</v>
       </c>
       <c r="N6" t="n">
+        <v>317466.2863579583</v>
+      </c>
+      <c r="O6" t="n">
+        <v>246318.26616045</v>
+      </c>
+      <c r="P6" t="n">
         <v>317466.2863579586</v>
-      </c>
-      <c r="O6" t="n">
-        <v>246318.2661604507</v>
-      </c>
-      <c r="P6" t="n">
-        <v>317466.2863579587</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M2" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N2" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O2" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P2" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="F3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="G3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="H3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="I3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="J3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="K3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="L3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="M3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="N3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="O3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="P3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26802,7 @@
         <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H4" t="n">
         <v>68.39702598806991</v>
@@ -26811,25 +26811,25 @@
         <v>68.39702598806993</v>
       </c>
       <c r="J4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="K4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="L4" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725994</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454177</v>
+        <v>22.11959820454189</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28108,31 +28108,31 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I11" t="n">
-        <v>218.4500239600112</v>
+        <v>217.448021582931</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K11" t="n">
-        <v>117.2611746393128</v>
+        <v>87.33624161702623</v>
       </c>
       <c r="L11" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634112</v>
+        <v>146.3687890634113</v>
       </c>
       <c r="N11" t="n">
-        <v>212.5903128911099</v>
+        <v>212.59031289111</v>
       </c>
       <c r="O11" t="n">
-        <v>149.2908438169257</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P11" t="n">
-        <v>218.4500239600112</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q11" t="n">
-        <v>218.4500239600112</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>218.4500239600112</v>
@@ -28190,25 +28190,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M12" t="n">
         <v>130.4191539456671</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P12" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
@@ -28254,40 +28254,40 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>215.3716501612691</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>200.3281284629336</v>
       </c>
       <c r="G13" t="n">
         <v>167.689771139254</v>
       </c>
       <c r="H13" t="n">
-        <v>218.4500239600112</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I13" t="n">
-        <v>216.1465068568801</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>170.9697584578413</v>
       </c>
       <c r="L13" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O13" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P13" t="n">
-        <v>174.0913696836794</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
@@ -28345,31 +28345,31 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I14" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7147916780044</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K14" t="n">
-        <v>157.9234874142799</v>
+        <v>157.92348741428</v>
       </c>
       <c r="L14" t="n">
-        <v>131.3218769717872</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M14" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634113</v>
       </c>
       <c r="N14" t="n">
-        <v>144.19328690304</v>
+        <v>66.35714642336322</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049956</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P14" t="n">
-        <v>218.4500239600112</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>213.3024776264282</v>
       </c>
       <c r="R14" t="n">
         <v>218.4500239600112</v>
@@ -28427,25 +28427,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M15" t="n">
         <v>130.4191539456671</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P15" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
@@ -28503,28 +28503,28 @@
         <v>159.857510195687</v>
       </c>
       <c r="I16" t="n">
-        <v>216.1465068568801</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
-        <v>109.6934180900282</v>
+        <v>178.0904440780981</v>
       </c>
       <c r="K16" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
-        <v>101.8051034503207</v>
+        <v>155.9742105034498</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O16" t="n">
-        <v>130.63182012934</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>178.5147763948743</v>
       </c>
       <c r="Q16" t="n">
         <v>130.9853613927381</v>
@@ -28579,40 +28579,40 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H17" t="n">
-        <v>333.5818414060377</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I17" t="n">
-        <v>231.6873452631074</v>
+        <v>236.7359651466257</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K17" t="n">
-        <v>157.9234874142799</v>
+        <v>157.92348741428</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634112</v>
+        <v>146.3687890634113</v>
       </c>
       <c r="N17" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O17" t="n">
-        <v>217.6878698049956</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537014</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.6434343361249</v>
+        <v>168.643434336125</v>
       </c>
       <c r="R17" t="n">
         <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>264.1110696273947</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T17" t="n">
         <v>289.4121442754985</v>
@@ -28621,7 +28621,7 @@
         <v>251.4421268174995</v>
       </c>
       <c r="V17" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28664,25 +28664,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P18" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
@@ -28752,13 +28752,13 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M19" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O19" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P19" t="n">
         <v>110.1177504068044</v>
@@ -28819,31 +28819,31 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
-        <v>188.0507309546109</v>
+        <v>231.6873452631074</v>
       </c>
       <c r="J20" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K20" t="n">
-        <v>157.9234874142799</v>
+        <v>226.3205134023499</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333817</v>
+        <v>227.9724324214517</v>
       </c>
       <c r="M20" t="n">
-        <v>212.0022988499429</v>
+        <v>146.3687890634113</v>
       </c>
       <c r="N20" t="n">
-        <v>212.5903128911099</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169257</v>
+        <v>149.2908438169258</v>
       </c>
       <c r="P20" t="n">
-        <v>161.3945396537014</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.6434343361249</v>
+        <v>168.643434336125</v>
       </c>
       <c r="R20" t="n">
         <v>182.2138048017995</v>
@@ -28852,13 +28852,13 @@
         <v>195.7140436393247</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>319.8391528055694</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28901,25 +28901,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P21" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
@@ -28989,13 +28989,13 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M22" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O22" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P22" t="n">
         <v>110.1177504068044</v>
@@ -29053,49 +29053,49 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I23" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J23" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K23" t="n">
-        <v>226.3205134023498</v>
+        <v>157.92348741428</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333817</v>
+        <v>227.9724324214517</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3687890634112</v>
+        <v>146.3687890634113</v>
       </c>
       <c r="N23" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O23" t="n">
-        <v>217.6878698049956</v>
+        <v>149.2908438169258</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537014</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.6434343361249</v>
+        <v>168.643434336125</v>
       </c>
       <c r="R23" t="n">
         <v>250.6108307898695</v>
       </c>
       <c r="S23" t="n">
-        <v>195.7140436393247</v>
+        <v>239.3506579478212</v>
       </c>
       <c r="T23" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>300.1273610095142</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29138,25 +29138,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P24" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
@@ -29226,13 +29226,13 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M25" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O25" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P25" t="n">
         <v>110.1177504068044</v>
@@ -29293,10 +29293,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I26" t="n">
-        <v>221.0151182874286</v>
+        <v>202.7697391387887</v>
       </c>
       <c r="J26" t="n">
-        <v>221.0151182874286</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K26" t="n">
         <v>221.0151182874286</v>
@@ -29305,19 +29305,19 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M26" t="n">
+        <v>146.3687890634113</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
+        <v>161.3945396537015</v>
+      </c>
+      <c r="Q26" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>221.0151182874286</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
@@ -29372,28 +29372,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>84.62627221371008</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N27" t="n">
-        <v>110.4467579361067</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P27" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q27" t="n">
         <v>106.0581031398714</v>
@@ -29402,7 +29402,7 @@
         <v>127.2394152081628</v>
       </c>
       <c r="S27" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406823</v>
       </c>
       <c r="T27" t="n">
         <v>197.4218470422748</v>
@@ -29433,13 +29433,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>221.0151182874286</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>198.4253365056554</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>221.0151182874286</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -29454,7 +29454,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29466,13 +29466,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681482</v>
+        <v>158.0173053948012</v>
       </c>
       <c r="O28" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q28" t="n">
         <v>130.9853613927381</v>
@@ -29481,7 +29481,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8751278244474</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T28" t="n">
         <v>221.0151182874286</v>
@@ -29530,13 +29530,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I29" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J29" t="n">
-        <v>58.1740251473014</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K29" t="n">
-        <v>221.0151182874286</v>
+        <v>57.13282981099664</v>
       </c>
       <c r="L29" t="n">
         <v>221.0151182874286</v>
@@ -29545,22 +29545,22 @@
         <v>221.0151182874286</v>
       </c>
       <c r="N29" t="n">
-        <v>144.19328690304</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0151182874286</v>
+        <v>186.5667365643401</v>
       </c>
       <c r="P29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29606,37 +29606,37 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H30" t="n">
-        <v>152.5379635824868</v>
+        <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985649</v>
+        <v>78.29747578532816</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346594</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P30" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>127.2394152081628</v>
+        <v>171.6167436547175</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29667,13 +29667,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.0151182874286</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>174.3156012987421</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
         <v>146.9746241731992</v>
@@ -29697,22 +29697,22 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503207</v>
+        <v>168.0465650312881</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927381</v>
+        <v>63.0286846798766</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29767,22 +29767,22 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
-        <v>21.07954551926571</v>
+        <v>146.3687890634113</v>
       </c>
       <c r="N32" t="n">
-        <v>221.0151182874286</v>
+        <v>170.9459402718471</v>
       </c>
       <c r="O32" t="n">
         <v>221.0151182874286</v>
@@ -29797,7 +29797,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29828,7 +29828,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>215.4029123739558</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -29849,25 +29849,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175249</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725114</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q33" t="n">
         <v>106.0581031398714</v>
@@ -29876,7 +29876,7 @@
         <v>127.2394152081628</v>
       </c>
       <c r="S33" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406824</v>
       </c>
       <c r="T33" t="n">
         <v>197.4218470422748</v>
@@ -29913,13 +29913,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>221.0151182874286</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>221.0151182874286</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H34" t="n">
         <v>159.857510195687</v>
@@ -29928,31 +29928,31 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698531</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.02868467987658</v>
+        <v>191.2393649367546</v>
       </c>
       <c r="R34" t="n">
-        <v>214.1796013820223</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S34" t="n">
         <v>218.8751278244474</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="D35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="E35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="F35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="G35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="I35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="K35" t="n">
-        <v>38.66067544366943</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="L35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M35" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Q35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="R35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T35" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y35" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="36">
@@ -30086,25 +30086,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N36" t="n">
-        <v>73.0632365072334</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P36" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q36" t="n">
         <v>106.0581031398714</v>
@@ -30116,7 +30116,7 @@
         <v>164.5345187941275</v>
       </c>
       <c r="T36" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599562</v>
       </c>
       <c r="U36" t="n">
         <v>224.641496683099</v>
@@ -30125,7 +30125,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -30147,7 +30147,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>243.1347164919704</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -30156,37 +30156,37 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.689771139254</v>
+        <v>169.9130955786171</v>
       </c>
       <c r="H37" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I37" t="n">
-        <v>147.7494808688102</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J37" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N37" t="n">
-        <v>97.39524436188738</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P37" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.9853613927381</v>
+        <v>105.1144083851355</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30198,13 +30198,13 @@
         <v>227.4786990669493</v>
       </c>
       <c r="U37" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V37" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W37" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="D38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="E38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="F38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="G38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="I38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="K38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7751205219091705</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N38" t="n">
-        <v>243.1347164919704</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P38" t="n">
-        <v>243.1347164919704</v>
+        <v>191.634938427959</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.1347164919704</v>
+        <v>154.2960642833024</v>
       </c>
       <c r="R38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y38" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="39">
@@ -30323,25 +30323,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P39" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q39" t="n">
         <v>106.0581031398714</v>
@@ -30350,7 +30350,7 @@
         <v>127.2394152081628</v>
       </c>
       <c r="S39" t="n">
-        <v>164.5345187941275</v>
+        <v>171.5283258118089</v>
       </c>
       <c r="T39" t="n">
         <v>197.4218470422748</v>
@@ -30362,13 +30362,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>210.6649584362675</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -30393,13 +30393,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>243.1347164919704</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H40" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I40" t="n">
-        <v>147.7494808688102</v>
+        <v>221.0984522638105</v>
       </c>
       <c r="J40" t="n">
         <v>109.6934180900282</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O40" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P40" t="n">
         <v>110.1177504068044</v>
@@ -30429,25 +30429,25 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8751278244474</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
       </c>
       <c r="U40" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V40" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W40" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X40" t="n">
-        <v>243.1347164919704</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>223.9179320179143</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="D41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="E41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="F41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="G41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="I41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="K41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="L41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M41" t="n">
-        <v>43.78576950346498</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N41" t="n">
-        <v>243.1347164919704</v>
+        <v>160.0613042068694</v>
       </c>
       <c r="O41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P41" t="n">
-        <v>243.1347164919704</v>
+        <v>191.634938427959</v>
       </c>
       <c r="Q41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="R41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="42">
@@ -30554,37 +30554,37 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H42" t="n">
-        <v>115.1544421536135</v>
+        <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
         <v>88.82825281985649</v>
       </c>
       <c r="J42" t="n">
-        <v>84.88547832248608</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P42" t="n">
-        <v>85.1122096929098</v>
+        <v>92.10601671059129</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>127.2394152081628</v>
+        <v>79.89687860438912</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
@@ -30599,7 +30599,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -30630,7 +30630,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>243.1347164919704</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H43" t="n">
         <v>159.857510195687</v>
@@ -30639,10 +30639,10 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
         <v>101.8051034503207</v>
@@ -30651,40 +30651,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681486</v>
       </c>
       <c r="O43" t="n">
-        <v>106.751788516009</v>
+        <v>109.9762278443754</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.02868467987658</v>
+        <v>63.0286846798766</v>
       </c>
       <c r="R43" t="n">
-        <v>164.4066131828346</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S43" t="n">
         <v>218.8751278244474</v>
       </c>
       <c r="T43" t="n">
-        <v>227.4786990669493</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>240.9122885775754</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="D44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="E44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="F44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="G44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="I44" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="K44" t="n">
-        <v>157.9234874142799</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="L44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N44" t="n">
-        <v>243.1347164919704</v>
+        <v>133.9311996262949</v>
       </c>
       <c r="O44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P44" t="n">
-        <v>191.6349384279591</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="R44" t="n">
-        <v>226.1131326919177</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="45">
@@ -30785,7 +30785,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>150.5000391012308</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.7848683666891</v>
@@ -30797,28 +30797,28 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065687</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346594</v>
+        <v>83.34002595346601</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175249</v>
+        <v>78.19029710175258</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P45" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290986</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.0581031398714</v>
+        <v>113.0519101575529</v>
       </c>
       <c r="R45" t="n">
         <v>127.2394152081628</v>
@@ -30836,7 +30836,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -30876,28 +30876,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>204.3603485785326</v>
+        <v>204.3603485785324</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.02868467987658</v>
+        <v>63.0286846798766</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -30909,13 +30909,13 @@
         <v>227.4786990669493</v>
       </c>
       <c r="U46" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V46" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W46" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J11" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P11" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R11" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N12" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J14" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P14" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R14" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N15" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J17" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P17" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R17" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N18" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J20" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P20" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R20" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N21" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J23" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P23" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R23" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N24" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J26" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P26" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R26" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N27" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J29" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P29" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R29" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N30" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J32" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P32" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R32" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N33" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J35" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P35" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R35" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N36" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J38" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P38" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R38" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N39" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J41" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P41" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R41" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N42" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620742</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115713</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351311</v>
       </c>
       <c r="J44" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490846</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457612</v>
+        <v>56.66411735457605</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235584</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317975</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363612</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921887</v>
+        <v>75.05491231921877</v>
       </c>
       <c r="P44" t="n">
-        <v>64.0576312076864</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146335</v>
+        <v>48.10461329146329</v>
       </c>
       <c r="R44" t="n">
-        <v>27.9820945669793</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421451</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496593</v>
+        <v>0.03563675904496589</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532125</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967789</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934314</v>
+        <v>38.4869800993431</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191141</v>
+        <v>51.75049433191135</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221536</v>
+        <v>60.39038597221529</v>
       </c>
       <c r="N45" t="n">
-        <v>61.9887397916981</v>
+        <v>61.98873979169803</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608211</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606214</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399959</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670211</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516911</v>
+        <v>4.427095111516905</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938706</v>
+        <v>0.9606848659938695</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593427</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338301</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388661</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111451</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947725</v>
+        <v>8.984534486947714</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975084</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583159</v>
+        <v>0.8537669245583149</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540027</v>
+        <v>29.39729062832008</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K11" t="n">
-        <v>28.92997566886365</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>68.39702598806991</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P11" t="n">
-        <v>57.05548430630975</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.80658962388625</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821164</v>
+        <v>36.23621915821163</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>52.22885684391465</v>
+        <v>52.22885684391455</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35550,26 +35550,26 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>54.16910705312909</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>58.59251376432418</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>63.97361927687506</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>30.39929300540028</v>
       </c>
       <c r="J14" t="n">
-        <v>18.0028519893938</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,16 +35662,16 @@
         <v>68.39702598806991</v>
       </c>
       <c r="P14" t="n">
-        <v>57.05548430630975</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>44.65904329030329</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821164</v>
+        <v>36.23621915821163</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068644</v>
+        <v>22.73598032068646</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>52.22885684391465</v>
+        <v>52.22885684391455</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35799,28 +35799,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>54.16910705312909</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>23.88003161333095</v>
-      </c>
-      <c r="P16" t="n">
-        <v>30.28907543979838</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>16.94827559451692</v>
       </c>
       <c r="I17" t="n">
-        <v>43.63661430849648</v>
+        <v>48.68523419201482</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,22 +36115,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>43.63661430849646</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="M20" t="n">
-        <v>65.63350978653176</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,20 +36349,20 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>68.39702598806993</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
@@ -36370,7 +36370,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>68.39702598806993</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>43.63661430849649</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>48.6852341920148</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281772</v>
+        <v>14.71900818417781</v>
       </c>
       <c r="J26" t="n">
-        <v>82.30317859881798</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>273.7641156373476</v>
+        <v>338.9230938761463</v>
       </c>
       <c r="L26" t="n">
-        <v>61.43971185404689</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401744</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>433.3080812606694</v>
+        <v>310.6475144854234</v>
       </c>
       <c r="O26" t="n">
-        <v>246.7413446963295</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320691</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.16415595017597</v>
+        <v>52.37168395130365</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562909</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>25.3010746481039</v>
+        <v>25.30107464810389</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36683,22 +36683,22 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36729,13 +36729,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>53.67856535622627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>49.41976999113604</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>74.04049411422943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36762,13 +36762,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>64.10147111798638</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.8973678806242</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.139990462981164</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J29" t="n">
-        <v>95.3225652376475</v>
+        <v>82.30317859881796</v>
       </c>
       <c r="K29" t="n">
-        <v>400.2028599471601</v>
+        <v>207.1541698400366</v>
       </c>
       <c r="L29" t="n">
-        <v>161.5653656682686</v>
+        <v>61.43971185404683</v>
       </c>
       <c r="M29" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>71.72427447050292</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320691</v>
+        <v>59.62057863372716</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.16415595017597</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R29" t="n">
         <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>44.37732844655475</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36963,13 +36963,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.9314267967448</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>25.3100347842227</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.2414615809674</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.96438733281768</v>
       </c>
       <c r="J32" t="n">
-        <v>258.1636583777747</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>179.1877416597314</v>
+        <v>63.09163087314859</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404689</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
-        <v>342.2048312884004</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>76.82183138438857</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="O32" t="n">
-        <v>433.3080812606695</v>
+        <v>71.72427447050279</v>
       </c>
       <c r="P32" t="n">
-        <v>59.62057863372721</v>
+        <v>369.3478848989833</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.8761052275533</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562909</v>
+        <v>38.80131348562902</v>
       </c>
       <c r="S32" t="n">
-        <v>25.3010746481039</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -37172,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37209,13 +37209,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>74.04049411422943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.32534714817462</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.8848259175754</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>60.25400354401651</v>
       </c>
       <c r="R34" t="n">
-        <v>49.77298819918771</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.0839855373595</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J35" t="n">
         <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
-        <v>145.550658940198</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="L35" t="n">
-        <v>364.9110552725996</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855921</v>
+        <v>28.04891149423678</v>
       </c>
       <c r="N35" t="n">
         <v>98.94142958893035</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504469</v>
+        <v>93.84387267504468</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826898</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.2988724421464</v>
+        <v>74.49128215584551</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017087</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264574</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>6.993807017681523</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>94.12914997745102</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.22332443936306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.38523562316026</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>3.479410085072552</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.0839855373595</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J38" t="n">
         <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>364.9110552725996</v>
+        <v>85.21122907769048</v>
       </c>
       <c r="L38" t="n">
-        <v>78.26902533828802</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M38" t="n">
-        <v>96.76592742855921</v>
+        <v>252.6016309959015</v>
       </c>
       <c r="N38" t="n">
-        <v>364.9110552725996</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504469</v>
+        <v>93.84387267504468</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826898</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.49128215584548</v>
+        <v>206.4602202334783</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017087</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264574</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454184</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37664,7 +37664,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -37689,13 +37689,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>75.44494535271639</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>73.34897139500029</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>24.25958866752302</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.99435655966113</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.169258150146054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.0839855373595</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J41" t="n">
         <v>104.4227768033598</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769046</v>
+        <v>85.21122907769048</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858866</v>
+        <v>152.7738284700814</v>
       </c>
       <c r="M41" t="n">
-        <v>364.9110552725996</v>
+        <v>96.76592742855921</v>
       </c>
       <c r="N41" t="n">
-        <v>98.94142958893035</v>
+        <v>15.86801730382929</v>
       </c>
       <c r="O41" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P41" t="n">
-        <v>81.74017683826898</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="Q41" t="n">
-        <v>75.65813887252794</v>
+        <v>74.49128215584551</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017087</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264574</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454184</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37850,7 +37850,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>75.44494535271639</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.224439328366324</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.72810330913588</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>15.65601742502112</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.16361470980718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J44" t="n">
-        <v>280.2832565823165</v>
+        <v>206.3714649284707</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="L44" t="n">
         <v>83.55931005858866</v>
@@ -38026,25 +38026,25 @@
         <v>96.76592742855921</v>
       </c>
       <c r="N44" t="n">
-        <v>337.6060369490237</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504469</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P44" t="n">
-        <v>364.9110552725996</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.49128215584548</v>
+        <v>74.49128215584551</v>
       </c>
       <c r="R44" t="n">
-        <v>43.89932789011817</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264574</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454184</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38081,7 +38081,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.60856006252358</v>
+        <v>97.60856006252332</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
